--- a/data/trans_orig/P1408-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>9655</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4904</v>
+        <v>5124</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17877</v>
+        <v>17779</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03536609760080878</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.017961004906375</v>
+        <v>0.01876687622240435</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06548143767227918</v>
+        <v>0.06512216757051277</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5597</v>
+        <v>5210</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003907702133632255</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02145685435516669</v>
+        <v>0.01997565877905246</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -786,19 +786,19 @@
         <v>10675</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5316</v>
+        <v>5422</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18722</v>
+        <v>18611</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01999552892584245</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009956970073986241</v>
+        <v>0.01015730438630406</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03506978669967085</v>
+        <v>0.03486227692181623</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>263355</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>255133</v>
+        <v>255231</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>268106</v>
+        <v>267886</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9646339023991912</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9345185623277187</v>
+        <v>0.9348778324294871</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.982038995093624</v>
+        <v>0.9812331237775956</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>244</v>
@@ -836,7 +836,7 @@
         <v>259819</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>255241</v>
+        <v>255628</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>260838</v>
@@ -845,7 +845,7 @@
         <v>0.9960922978663678</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.978543145644832</v>
+        <v>0.9800243412209475</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>523173</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>515126</v>
+        <v>515237</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>528532</v>
+        <v>528426</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9800044710741576</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9649302133003295</v>
+        <v>0.9651377230781836</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9900430299260138</v>
+        <v>0.9898426956136959</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>24212</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15266</v>
+        <v>15748</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37115</v>
+        <v>36110</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0491045967356671</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03096037541637782</v>
+        <v>0.0319375178215824</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07527293954651994</v>
+        <v>0.07323421741716166</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -982,19 +982,19 @@
         <v>18709</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11749</v>
+        <v>11717</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28595</v>
+        <v>29268</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03712457236510606</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02331470332578597</v>
+        <v>0.02324947848945737</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0567415971312691</v>
+        <v>0.05807739710593076</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -1003,19 +1003,19 @@
         <v>42921</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30309</v>
+        <v>30804</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56189</v>
+        <v>57610</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04304925504571617</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03039949598197435</v>
+        <v>0.03089639856365109</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0563566345828306</v>
+        <v>0.05778237039541097</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>468863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455960</v>
+        <v>456965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>477809</v>
+        <v>477327</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9508954032643329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9247270604534797</v>
+        <v>0.9267657825828381</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9690396245836221</v>
+        <v>0.9680624821784176</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>480</v>
@@ -1053,19 +1053,19 @@
         <v>485240</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>475354</v>
+        <v>474681</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>492200</v>
+        <v>492232</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.962875427634894</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.943258402868731</v>
+        <v>0.9419226028940694</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.976685296674214</v>
+        <v>0.9767505215105428</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>923</v>
@@ -1074,19 +1074,19 @@
         <v>954103</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>940835</v>
+        <v>939414</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>966715</v>
+        <v>966220</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9569507449542838</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9436433654171693</v>
+        <v>0.9422176296045887</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9696005040180254</v>
+        <v>0.9691036014363489</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13045</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7413</v>
+        <v>6392</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21526</v>
+        <v>21591</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04091423215207318</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02324861881797682</v>
+        <v>0.02004590086836918</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06751141391943541</v>
+        <v>0.06771483980651369</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1199,19 +1199,19 @@
         <v>3085</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9170</v>
+        <v>8213</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009197986335420152</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002764922633950459</v>
+        <v>0.002753980124668044</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02734043880942777</v>
+        <v>0.02448658432198728</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1220,19 +1220,19 @@
         <v>16130</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9385</v>
+        <v>9340</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25145</v>
+        <v>25214</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02465457478405242</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01434387748980931</v>
+        <v>0.01427520411166856</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03843274987668761</v>
+        <v>0.03853851858949987</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>305801</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>297320</v>
+        <v>297255</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311433</v>
+        <v>312454</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9590857678479269</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9324885860805647</v>
+        <v>0.9322851601934864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9767513811820232</v>
+        <v>0.9799540991316308</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>332</v>
@@ -1270,19 +1270,19 @@
         <v>332327</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>326242</v>
+        <v>327199</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334485</v>
+        <v>334488</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9908020136645799</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9726595611905733</v>
+        <v>0.9755134156780125</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972350773660495</v>
+        <v>0.997246019875332</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>629</v>
@@ -1291,19 +1291,19 @@
         <v>638128</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>629113</v>
+        <v>629044</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>644873</v>
+        <v>644918</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9753454252159476</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9615672501233125</v>
+        <v>0.9614614814105</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9856561225101909</v>
+        <v>0.9857247958883314</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>15265</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9189</v>
+        <v>9001</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24454</v>
+        <v>24299</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04256101036402046</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02561965148611116</v>
+        <v>0.02509564793425212</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06818066493337245</v>
+        <v>0.06774634579472445</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1416,19 +1416,19 @@
         <v>6271</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2259</v>
+        <v>2269</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13084</v>
+        <v>12626</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0168834753532593</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006081582352510021</v>
+        <v>0.006108329906596044</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03522379749867637</v>
+        <v>0.03399172196783511</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -1437,19 +1437,19 @@
         <v>21537</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13620</v>
+        <v>13566</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32337</v>
+        <v>31617</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02949743027343661</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01865430149799296</v>
+        <v>0.01857984794926348</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04428937557522489</v>
+        <v>0.04330357219287618</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>343406</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>334217</v>
+        <v>334372</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>349482</v>
+        <v>349670</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9574389896359795</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9318193350666276</v>
+        <v>0.9322536542052756</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9743803485138889</v>
+        <v>0.9749043520657479</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>378</v>
@@ -1487,19 +1487,19 @@
         <v>365185</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>358372</v>
+        <v>358830</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369197</v>
+        <v>369187</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9831165246467407</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9647762025013238</v>
+        <v>0.966008278032165</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.99391841764749</v>
+        <v>0.993891670093404</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>724</v>
@@ -1508,19 +1508,19 @@
         <v>708590</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>697790</v>
+        <v>698510</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>716507</v>
+        <v>716561</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9705025697265633</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9557106244247748</v>
+        <v>0.9566964278071237</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9813456985020068</v>
+        <v>0.9814201520507364</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>8522</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3998</v>
+        <v>3862</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15542</v>
+        <v>15782</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04191795819341874</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01966361070854842</v>
+        <v>0.01899565631867712</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0764478390724642</v>
+        <v>0.07762722827505462</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1633,19 +1633,19 @@
         <v>8778</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3903</v>
+        <v>3967</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15694</v>
+        <v>17330</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04226987207193659</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01879323142995797</v>
+        <v>0.01910437500381731</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07557220844838052</v>
+        <v>0.08345110455667253</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1654,19 +1654,19 @@
         <v>17300</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10306</v>
+        <v>10011</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27300</v>
+        <v>26017</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0420957818209409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02507717726962107</v>
+        <v>0.02435855408082324</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06642753632690249</v>
+        <v>0.06330587746388577</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>194786</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>187766</v>
+        <v>187526</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>199310</v>
+        <v>199446</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9580820418065813</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9235521609275358</v>
+        <v>0.9223727717249453</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9803363892914515</v>
+        <v>0.9810043436813228</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>190</v>
@@ -1704,19 +1704,19 @@
         <v>198890</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>191974</v>
+        <v>190338</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>203765</v>
+        <v>203701</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9577301279280634</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9244277915516191</v>
+        <v>0.9165488954433273</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.981206768570042</v>
+        <v>0.9808956249961827</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>387</v>
@@ -1725,19 +1725,19 @@
         <v>393676</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>383676</v>
+        <v>384959</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>400670</v>
+        <v>400965</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9579042181790591</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9335724636730975</v>
+        <v>0.9366941225361142</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9749228227303789</v>
+        <v>0.9756414459191767</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>5625</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2032</v>
+        <v>2636</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11302</v>
+        <v>11578</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02077153126306824</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007502151855393008</v>
+        <v>0.0097351330388882</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04173457699946013</v>
+        <v>0.04275172681628279</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1850,19 +1850,19 @@
         <v>3385</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8940</v>
+        <v>9116</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01217129526877218</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003706081488610932</v>
+        <v>0.003704110661351628</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03214316802636502</v>
+        <v>0.03277514247613312</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1871,19 +1871,19 @@
         <v>9011</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4190</v>
+        <v>4681</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17263</v>
+        <v>16938</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01641397185842116</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007632920970084721</v>
+        <v>0.008526289277690235</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03144673691169918</v>
+        <v>0.03085473976749336</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>265186</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259509</v>
+        <v>259233</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268779</v>
+        <v>268175</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9792284687369318</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.958265423000539</v>
+        <v>0.9572482731837174</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.992497848144607</v>
+        <v>0.9902648669611118</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>267</v>
@@ -1921,19 +1921,19 @@
         <v>274759</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>269204</v>
+        <v>269028</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277113</v>
+        <v>277114</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9878287047312279</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.967856831973635</v>
+        <v>0.9672248575238671</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9962939185113892</v>
+        <v>0.9962958893386483</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>527</v>
@@ -1942,19 +1942,19 @@
         <v>539944</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>531692</v>
+        <v>532017</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>544765</v>
+        <v>544274</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9835860281415788</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9685532630883009</v>
+        <v>0.9691452602325067</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9923670790299154</v>
+        <v>0.9914737107223097</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>27247</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19333</v>
+        <v>18887</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38763</v>
+        <v>38227</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04430209441948803</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03143397574746309</v>
+        <v>0.03070845971162857</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06302712751668511</v>
+        <v>0.06215438078576199</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2067,19 +2067,19 @@
         <v>21310</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14062</v>
+        <v>13564</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32326</v>
+        <v>31759</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03338952515860969</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02203310674153878</v>
+        <v>0.02125294678184537</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05065007262177012</v>
+        <v>0.04976119866686109</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -2088,19 +2088,19 @@
         <v>48557</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36152</v>
+        <v>36506</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63589</v>
+        <v>61717</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03874483812277983</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02884641397065568</v>
+        <v>0.02912942487489002</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05073924106706431</v>
+        <v>0.04924592220653624</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>587780</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>576264</v>
+        <v>576800</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>595694</v>
+        <v>596140</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9556979055805119</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9369728724833152</v>
+        <v>0.937845619214238</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9685660242525371</v>
+        <v>0.9692915402883718</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>600</v>
@@ -2138,19 +2138,19 @@
         <v>616909</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>605893</v>
+        <v>606460</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>624157</v>
+        <v>624655</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9666104748413903</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9493499273782299</v>
+        <v>0.9502388013331385</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9779668932584613</v>
+        <v>0.9787470532181545</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1168</v>
@@ -2159,19 +2159,19 @@
         <v>1204689</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1189657</v>
+        <v>1191529</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1217094</v>
+        <v>1216740</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9612551618772202</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9492607589329356</v>
+        <v>0.9507540777934635</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9711535860293441</v>
+        <v>0.97087057512511</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>32447</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22008</v>
+        <v>22076</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44984</v>
+        <v>45079</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04362316044111422</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02958939053800354</v>
+        <v>0.02968005876560434</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06047837200615881</v>
+        <v>0.0606066060070858</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -2284,19 +2284,19 @@
         <v>28976</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20250</v>
+        <v>19496</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41598</v>
+        <v>41683</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03698270829620178</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02584577906282831</v>
+        <v>0.02488269181584361</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05309170945711306</v>
+        <v>0.05320072587574495</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -2305,19 +2305,19 @@
         <v>61423</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>47160</v>
+        <v>47151</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77742</v>
+        <v>79844</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04021659544502194</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03087765733736096</v>
+        <v>0.03087182213920269</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0509014298651387</v>
+        <v>0.05227785643667783</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>711348</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>698811</v>
+        <v>698716</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>721787</v>
+        <v>721719</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9563768395588857</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9395216279938408</v>
+        <v>0.9393933939929143</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9704106094619964</v>
+        <v>0.9703199412343957</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>718</v>
@@ -2355,19 +2355,19 @@
         <v>754535</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>741913</v>
+        <v>741828</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>763261</v>
+        <v>764015</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9630172917037982</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9469082905428869</v>
+        <v>0.9467992741242542</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9741542209371716</v>
+        <v>0.9751173081841562</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1422</v>
@@ -2376,19 +2376,19 @@
         <v>1465883</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1449564</v>
+        <v>1447462</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1480146</v>
+        <v>1480155</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.959783404554978</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9490985701348612</v>
+        <v>0.9477221435633223</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.969122342662639</v>
+        <v>0.9691281778607973</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>136019</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>115630</v>
+        <v>116109</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>157651</v>
+        <v>159688</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04151307503473621</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03529017512606692</v>
+        <v>0.03543655544429158</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04811509746835873</v>
+        <v>0.04873670325254809</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>88</v>
@@ -2501,19 +2501,19 @@
         <v>91534</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>74657</v>
+        <v>73932</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>112872</v>
+        <v>112379</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02708762067688475</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0220932539261662</v>
+        <v>0.02187867131907256</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03340211741436706</v>
+        <v>0.03325608979554518</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>226</v>
@@ -2522,19 +2522,19 @@
         <v>227554</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>199653</v>
+        <v>200906</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>258257</v>
+        <v>257443</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03418910325589091</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02999706534123199</v>
+        <v>0.03018530992542486</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03880220591986967</v>
+        <v>0.03867985863282864</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3140524</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3118892</v>
+        <v>3116855</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3160913</v>
+        <v>3160434</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9584869249652638</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9518849025316413</v>
+        <v>0.9512632967474519</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9647098248739331</v>
+        <v>0.9645634445557084</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3209</v>
@@ -2572,19 +2572,19 @@
         <v>3287663</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3266325</v>
+        <v>3266818</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3304540</v>
+        <v>3305265</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9729123793231153</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9665978825856328</v>
+        <v>0.9667439102044547</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9779067460738338</v>
+        <v>0.9781213286809275</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6285</v>
@@ -2593,19 +2593,19 @@
         <v>6428187</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6397484</v>
+        <v>6398298</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6456088</v>
+        <v>6454835</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9658108967441091</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9611977940801302</v>
+        <v>0.9613201413671714</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9700029346587679</v>
+        <v>0.9698146900745751</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>3836</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8802</v>
+        <v>8730</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01301613889077217</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003290912813361697</v>
+        <v>0.00323699477623461</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02986366834585881</v>
+        <v>0.02961990609930772</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2962,19 +2962,19 @@
         <v>4058</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10919</v>
+        <v>12373</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01412717440203974</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.003666402042965924</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03801347117208898</v>
+        <v>0.04307375918354841</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2983,19 +2983,19 @@
         <v>7894</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3150</v>
+        <v>3106</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16020</v>
+        <v>17073</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01356450435630402</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005412299080902191</v>
+        <v>0.005337742012919178</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02752629044582667</v>
+        <v>0.02933589281081708</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>290902</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>285936</v>
+        <v>286008</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293768</v>
+        <v>293784</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9869838611092279</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9701363316541411</v>
+        <v>0.9703800939006924</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9967090871866383</v>
+        <v>0.9967630052237654</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>253</v>
@@ -3033,19 +3033,19 @@
         <v>283187</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>276326</v>
+        <v>274872</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>287245</v>
+        <v>286192</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9858728255979603</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9619865288279115</v>
+        <v>0.9569262408164516</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>1</v>
+        <v>0.996333597957034</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>531</v>
@@ -3054,19 +3054,19 @@
         <v>574089</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>565963</v>
+        <v>564910</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>578833</v>
+        <v>578877</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9864354956436959</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9724737095541733</v>
+        <v>0.9706641071891832</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9945877009190979</v>
+        <v>0.9946622579870807</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>16486</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9190</v>
+        <v>9391</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27302</v>
+        <v>26858</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03261177262221416</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01817971558276973</v>
+        <v>0.01857665033282523</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05400651256265145</v>
+        <v>0.05312870792752757</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -3179,19 +3179,19 @@
         <v>6334</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2172</v>
+        <v>2212</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12810</v>
+        <v>13809</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01209331711221558</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004147499913930814</v>
+        <v>0.004222376638893347</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02445844843682494</v>
+        <v>0.02636553753859386</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -3200,19 +3200,19 @@
         <v>22820</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14455</v>
+        <v>14542</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34045</v>
+        <v>34173</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02217076442288846</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01404381649465979</v>
+        <v>0.01412769544304514</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03307568256848373</v>
+        <v>0.03320039372748895</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>489041</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>478225</v>
+        <v>478669</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>496337</v>
+        <v>496136</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9673882273777858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9459934874373491</v>
+        <v>0.9468712920724724</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9818202844172303</v>
+        <v>0.9814233496671747</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>474</v>
@@ -3250,19 +3250,19 @@
         <v>517431</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>510955</v>
+        <v>509956</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521593</v>
+        <v>521553</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9879066828877844</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9755415515631751</v>
+        <v>0.9736344624614061</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9958525000860693</v>
+        <v>0.9957776233611066</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>931</v>
@@ -3271,19 +3271,19 @@
         <v>1006472</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>995247</v>
+        <v>995119</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1014837</v>
+        <v>1014750</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9778292355771115</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9669243174315165</v>
+        <v>0.9667996062725113</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9859561835053403</v>
+        <v>0.9858723045569548</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>7501</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3282</v>
+        <v>3071</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15213</v>
+        <v>14911</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02314769561960451</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01012827070165312</v>
+        <v>0.009477877656194234</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04694582484383918</v>
+        <v>0.04601417457725277</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3396,19 +3396,19 @@
         <v>5237</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2000</v>
+        <v>2060</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11671</v>
+        <v>11435</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01535674066700574</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005865475897687099</v>
+        <v>0.006041629910911553</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03422295932742626</v>
+        <v>0.03353287044181892</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -3417,19 +3417,19 @@
         <v>12738</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6989</v>
+        <v>6902</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21428</v>
+        <v>21312</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0191527966384489</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01050807168514522</v>
+        <v>0.01037803932420838</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03221975998927732</v>
+        <v>0.03204506809955025</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>316545</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308833</v>
+        <v>309135</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>320764</v>
+        <v>320975</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9768523043803955</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9530541751561609</v>
+        <v>0.9539858254227472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9898717292983469</v>
+        <v>0.9905221223438058</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>312</v>
@@ -3467,19 +3467,19 @@
         <v>335783</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>329349</v>
+        <v>329585</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>339020</v>
+        <v>338960</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9846432593329942</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9657770406725736</v>
+        <v>0.9664671295581811</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.994134524102313</v>
+        <v>0.9939583700890885</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>624</v>
@@ -3488,19 +3488,19 @@
         <v>652328</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>643638</v>
+        <v>643754</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>658077</v>
+        <v>658164</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9808472033615511</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9677802400107223</v>
+        <v>0.9679549319004501</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9894919283148547</v>
+        <v>0.9896219606757917</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>10657</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5079</v>
+        <v>5316</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19864</v>
+        <v>20874</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02849721824060957</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01358011713875229</v>
+        <v>0.01421587028349656</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05311451929639463</v>
+        <v>0.05581509531588386</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3613,19 +3613,19 @@
         <v>10144</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5101</v>
+        <v>5164</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18164</v>
+        <v>18063</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02608003945676319</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01311451734579974</v>
+        <v>0.0132775013345014</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04669986229415719</v>
+        <v>0.04644116108965342</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -3634,19 +3634,19 @@
         <v>20801</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13021</v>
+        <v>12560</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33494</v>
+        <v>31433</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02726491611360853</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01706732029277914</v>
+        <v>0.01646291868802877</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04390133274345424</v>
+        <v>0.04120027678959644</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>363325</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>354118</v>
+        <v>353108</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>368903</v>
+        <v>368666</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9715027817593904</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9468854807036053</v>
+        <v>0.9441849046841165</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9864198828612477</v>
+        <v>0.9857841297165035</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>361</v>
@@ -3684,19 +3684,19 @@
         <v>378807</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>370787</v>
+        <v>370888</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>383850</v>
+        <v>383787</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9739199605432368</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9533001377058429</v>
+        <v>0.9535588389103465</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9868854826542003</v>
+        <v>0.9867224986654985</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>696</v>
@@ -3705,19 +3705,19 @@
         <v>742132</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>729439</v>
+        <v>731500</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>749912</v>
+        <v>750373</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9727350838863915</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9560986672565457</v>
+        <v>0.9587997232104036</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9829326797072204</v>
+        <v>0.9835370813119713</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>3269</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8949</v>
+        <v>8930</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01537717176769211</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004811377906195506</v>
+        <v>0.004837511613348325</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04208762103344772</v>
+        <v>0.04199914137720419</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4837</v>
+        <v>5184</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004419248167243498</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02202900881237285</v>
+        <v>0.0236095729127576</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -3851,19 +3851,19 @@
         <v>4240</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1087</v>
+        <v>1102</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10390</v>
+        <v>10411</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009809816200864364</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002515902265316658</v>
+        <v>0.002550561621382391</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02403877748727934</v>
+        <v>0.02408685320166963</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>209349</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>203669</v>
+        <v>203688</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>211595</v>
+        <v>211589</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9846228282323078</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9579123789665525</v>
+        <v>0.9580008586227957</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9951886220938044</v>
+        <v>0.9951624883866517</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>211</v>
@@ -3901,7 +3901,7 @@
         <v>218621</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>214754</v>
+        <v>214407</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>219591</v>
@@ -3910,7 +3910,7 @@
         <v>0.9955807518327565</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9779709911876271</v>
+        <v>0.976390427087244</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3922,19 +3922,19 @@
         <v>427969</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>421819</v>
+        <v>421798</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>431122</v>
+        <v>431107</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9901901837991356</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9759612225127207</v>
+        <v>0.9759131467983303</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9974840977346834</v>
+        <v>0.9974494383786177</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>12610</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6353</v>
+        <v>6479</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21147</v>
+        <v>23311</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04602418454695491</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02318843733641525</v>
+        <v>0.02364943826461114</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07718466542304556</v>
+        <v>0.08508247592662603</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -4047,19 +4047,19 @@
         <v>2961</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8693</v>
+        <v>8168</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01064878434036019</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003432445817741078</v>
+        <v>0.003411778544403195</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03125729217488721</v>
+        <v>0.02936943336097867</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -4068,19 +4068,19 @@
         <v>15571</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9203</v>
+        <v>9169</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26203</v>
+        <v>27057</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02820465424663472</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01667014043207621</v>
+        <v>0.01660894607907632</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04746258816253045</v>
+        <v>0.04900897589360741</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>261371</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252834</v>
+        <v>250670</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267628</v>
+        <v>267502</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9539758154530451</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9228153345769545</v>
+        <v>0.9149175240733739</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9768115626635848</v>
+        <v>0.9763505617353888</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>265</v>
@@ -4118,19 +4118,19 @@
         <v>275135</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>269403</v>
+        <v>269928</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277141</v>
+        <v>277147</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9893512156596398</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9687427078251113</v>
+        <v>0.9706305666390193</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9965675541822588</v>
+        <v>0.9965882214555968</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>515</v>
@@ -4139,19 +4139,19 @@
         <v>536506</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>525874</v>
+        <v>525020</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>542874</v>
+        <v>542908</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9717953457533652</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9525374118374694</v>
+        <v>0.9509910241063924</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9833298595679235</v>
+        <v>0.9833910539209236</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>7164</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14072</v>
+        <v>14387</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01080938494589109</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004611734262084282</v>
+        <v>0.004607808074212222</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02123206827094948</v>
+        <v>0.02170614935384808</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4264,19 +4264,19 @@
         <v>7356</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3091</v>
+        <v>3104</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14732</v>
+        <v>14808</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01060122719719819</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004454412736245418</v>
+        <v>0.004473962011618544</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02123164629626558</v>
+        <v>0.02134163716151557</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -4285,19 +4285,19 @@
         <v>14520</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8119</v>
+        <v>8012</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23233</v>
+        <v>23893</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01070292283008607</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005984303422126776</v>
+        <v>0.005905980585114851</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01712564167930464</v>
+        <v>0.0176118973078682</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>655624</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>648716</v>
+        <v>648401</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>659731</v>
+        <v>659734</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9891906150541089</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9787679317290505</v>
+        <v>0.9782938506461519</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9953882657379157</v>
+        <v>0.9953921919257878</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>629</v>
@@ -4335,19 +4335,19 @@
         <v>686497</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>679121</v>
+        <v>679045</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>690762</v>
+        <v>690749</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9893987728028018</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9787683537037348</v>
+        <v>0.9786583628384845</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9955455872637546</v>
+        <v>0.9955260379883815</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1240</v>
@@ -4356,19 +4356,19 @@
         <v>1342121</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1333408</v>
+        <v>1332748</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1348522</v>
+        <v>1348629</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9892970771699139</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9828743583206957</v>
+        <v>0.9823881026921318</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9940156965778733</v>
+        <v>0.9940940194148853</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>12129</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6389</v>
+        <v>6311</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21631</v>
+        <v>22297</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0155679947754881</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008200563318335314</v>
+        <v>0.008100906839871656</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02776383048064735</v>
+        <v>0.02861924978171605</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -4481,19 +4481,19 @@
         <v>5408</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2138</v>
+        <v>2158</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13205</v>
+        <v>12905</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006583444704005326</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002603144837876966</v>
+        <v>0.002627783292143774</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.016075898664713</v>
+        <v>0.01571053242824914</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -4502,19 +4502,19 @@
         <v>17537</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9352</v>
+        <v>8924</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27459</v>
+        <v>28059</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01095700148569405</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005843393726770048</v>
+        <v>0.005575484599245555</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01715677405263881</v>
+        <v>0.0175315755668682</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>766969</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>757467</v>
+        <v>756801</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>772709</v>
+        <v>772787</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9844320052245119</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9722361695193524</v>
+        <v>0.9713807502182841</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9917994366816646</v>
+        <v>0.9918990931601284</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>750</v>
@@ -4552,19 +4552,19 @@
         <v>815987</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>808190</v>
+        <v>808490</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>819257</v>
+        <v>819237</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9934165552959947</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9839241013352871</v>
+        <v>0.984289467571751</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9973968551621231</v>
+        <v>0.9973722167078563</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1457</v>
@@ -4573,19 +4573,19 @@
         <v>1582956</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1573034</v>
+        <v>1572434</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1591141</v>
+        <v>1591569</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.989042998514306</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9828432259473613</v>
+        <v>0.9824684244331319</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.99415660627323</v>
+        <v>0.9944245154007545</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>73653</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>55455</v>
+        <v>58010</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>91616</v>
+        <v>93657</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02149348111325351</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01618282265822354</v>
+        <v>0.01692857301287009</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02673541966862198</v>
+        <v>0.02733105396308802</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>40</v>
@@ -4698,19 +4698,19 @@
         <v>42468</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>31353</v>
+        <v>30713</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>57800</v>
+        <v>57336</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01194961963431402</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008822198592977405</v>
+        <v>0.008641928969829404</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01626365166166996</v>
+        <v>0.01613329100467435</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>106</v>
@@ -4719,19 +4719,19 @@
         <v>116121</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>96380</v>
+        <v>95661</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>140958</v>
+        <v>141474</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01663464096945996</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01380664161697903</v>
+        <v>0.01370362052574704</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0201925782427997</v>
+        <v>0.0202664452724272</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3353126</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3335163</v>
+        <v>3333122</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3371324</v>
+        <v>3368769</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9785065188867464</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9732645803313779</v>
+        <v>0.9726689460369119</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9838171773417762</v>
+        <v>0.9830714269871298</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3255</v>
@@ -4769,19 +4769,19 @@
         <v>3511448</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3496116</v>
+        <v>3496580</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3522563</v>
+        <v>3523203</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9880503803656859</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9837363483383301</v>
+        <v>0.9838667089953257</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9911778014070226</v>
+        <v>0.9913580710301706</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6398</v>
@@ -4790,19 +4790,19 @@
         <v>6864573</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6839736</v>
+        <v>6839220</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6884314</v>
+        <v>6885033</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.98336535903054</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9798074217571998</v>
+        <v>0.9797335547275731</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9861933583830205</v>
+        <v>0.9862963794742534</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>7283</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3049</v>
+        <v>2795</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15743</v>
+        <v>15370</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02479307103907828</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01037867731079859</v>
+        <v>0.009515941384832576</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05359171066431642</v>
+        <v>0.05232061964080805</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5646</v>
+        <v>6401</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006218448048456697</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01955643584946005</v>
+        <v>0.022171236683571</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -5180,19 +5180,19 @@
         <v>9079</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4189</v>
+        <v>3956</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17966</v>
+        <v>16788</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0155864087006839</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007191213251277187</v>
+        <v>0.006791766915467216</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03084530886569086</v>
+        <v>0.02882166742917495</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>286478</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>278018</v>
+        <v>278391</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290712</v>
+        <v>290966</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9752069289609218</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9464082893356828</v>
+        <v>0.9476793803591919</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9896213226892013</v>
+        <v>0.9904840586151673</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>275</v>
@@ -5230,7 +5230,7 @@
         <v>286908</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283057</v>
+        <v>282302</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>288703</v>
@@ -5239,7 +5239,7 @@
         <v>0.9937815519515433</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9804435641505378</v>
+        <v>0.977828763316429</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -5251,19 +5251,19 @@
         <v>573385</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>564498</v>
+        <v>565676</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>578275</v>
+        <v>578508</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.984413591299316</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9691546911343093</v>
+        <v>0.9711783325708254</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9928087867487229</v>
+        <v>0.9932082330845328</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>13283</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7569</v>
+        <v>7839</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22072</v>
+        <v>22215</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02643010066174581</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01506044927010377</v>
+        <v>0.01559845348993601</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04391787135908177</v>
+        <v>0.04420263044615474</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -5376,19 +5376,19 @@
         <v>7724</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3256</v>
+        <v>3356</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15566</v>
+        <v>14862</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01476626561615271</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006225516877951764</v>
+        <v>0.006415485118793702</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02975829169715081</v>
+        <v>0.02841261117132891</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -5397,19 +5397,19 @@
         <v>21007</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12596</v>
+        <v>13427</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32152</v>
+        <v>31231</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02048157065288651</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01228128736254667</v>
+        <v>0.01309144419422879</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03134810345706281</v>
+        <v>0.03045012658741303</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>489292</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>480503</v>
+        <v>480360</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>495006</v>
+        <v>494736</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9735698993382542</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9560821286409181</v>
+        <v>0.9557973695538452</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9849395507298961</v>
+        <v>0.984401546510064</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>477</v>
@@ -5447,19 +5447,19 @@
         <v>515360</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>507518</v>
+        <v>508222</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>519828</v>
+        <v>519728</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9852337343838473</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9702417083028492</v>
+        <v>0.971587388828671</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9937744831220482</v>
+        <v>0.9935845148812062</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>939</v>
@@ -5468,19 +5468,19 @@
         <v>1004652</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>993507</v>
+        <v>994428</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1013063</v>
+        <v>1012232</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9795184293471135</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9686518965429373</v>
+        <v>0.969549873412587</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9877187126374533</v>
+        <v>0.9869085558057711</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>4305</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1647</v>
+        <v>1490</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9813</v>
+        <v>9366</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01351418367064598</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005171322271374103</v>
+        <v>0.004677648120334251</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03080531758115072</v>
+        <v>0.02939984851444957</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -5593,19 +5593,19 @@
         <v>3415</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9465</v>
+        <v>8968</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01015483300918749</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003110258545963332</v>
+        <v>0.003112475403434625</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02814382712091718</v>
+        <v>0.02666689477989862</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -5614,19 +5614,19 @@
         <v>7720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3584</v>
+        <v>3373</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14208</v>
+        <v>14920</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01178899704084734</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0054729840099985</v>
+        <v>0.005151214581521108</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02169503115895388</v>
+        <v>0.02278309684961749</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>314260</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308752</v>
+        <v>309199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316918</v>
+        <v>317075</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9864858163293541</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9691946824188492</v>
+        <v>0.9706001514855505</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9948286777286259</v>
+        <v>0.9953223518796658</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>329</v>
@@ -5664,19 +5664,19 @@
         <v>332894</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>326844</v>
+        <v>327341</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>335263</v>
+        <v>335262</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9898451669908125</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9718561728790815</v>
+        <v>0.9733331052201017</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9968897414540366</v>
+        <v>0.9968875245965654</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>659</v>
@@ -5685,19 +5685,19 @@
         <v>647154</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>640666</v>
+        <v>639954</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>651290</v>
+        <v>651501</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9882110029591527</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.978304968841046</v>
+        <v>0.9772169031503833</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9945270159900015</v>
+        <v>0.9948487854184791</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>9558</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4869</v>
+        <v>4849</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17259</v>
+        <v>18162</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02583613113351885</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01316136860119093</v>
+        <v>0.01310612774451971</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04664985851505893</v>
+        <v>0.049090883645048</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -5810,19 +5810,19 @@
         <v>5246</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2021</v>
+        <v>1933</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12380</v>
+        <v>11783</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01354481960275349</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005217956407778391</v>
+        <v>0.004989967372359891</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03196705398405377</v>
+        <v>0.03042576315934594</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -5831,19 +5831,19 @@
         <v>14804</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8304</v>
+        <v>8038</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23937</v>
+        <v>22886</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01954991802194864</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0109666051541579</v>
+        <v>0.01061533322309213</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03161120093625375</v>
+        <v>0.0302223130015868</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>360406</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>352705</v>
+        <v>351802</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>365095</v>
+        <v>365115</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9741638688664811</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9533501414849411</v>
+        <v>0.950909116354952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9868386313988091</v>
+        <v>0.9868938722554803</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>353</v>
@@ -5881,19 +5881,19 @@
         <v>382037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>374903</v>
+        <v>375500</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>385262</v>
+        <v>385350</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9864551803972466</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9680329460159461</v>
+        <v>0.9695742368406538</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9947820435922217</v>
+        <v>0.9950100326276401</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>697</v>
@@ -5902,19 +5902,19 @@
         <v>742443</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>733310</v>
+        <v>734361</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>748943</v>
+        <v>749209</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9804500819780514</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.968388799063746</v>
+        <v>0.9697776869984129</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9890333948458417</v>
+        <v>0.9893846667769078</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>4640</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1765</v>
+        <v>1054</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10022</v>
+        <v>9261</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02196661036221807</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008358455955752835</v>
+        <v>0.004989918333142205</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04744724860985172</v>
+        <v>0.04384707954610755</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6125</v>
+        <v>6914</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009173794177708571</v>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02802024333453432</v>
+        <v>0.03162984668349312</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -6048,19 +6048,19 @@
         <v>6645</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2905</v>
+        <v>2835</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13047</v>
+        <v>13480</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01546058133844039</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006759386615214507</v>
+        <v>0.006595964935266366</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03035641322649857</v>
+        <v>0.03136193343081596</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>206581</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201199</v>
+        <v>201960</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209456</v>
+        <v>210167</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.978033389637782</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9525527513901479</v>
+        <v>0.9561529204538927</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9916415440442471</v>
+        <v>0.9950100816668578</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>221</v>
@@ -6098,7 +6098,7 @@
         <v>216582</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>212462</v>
+        <v>211673</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>218587</v>
@@ -6107,7 +6107,7 @@
         <v>0.9908262058222914</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9719797566654658</v>
+        <v>0.968370153316507</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -6119,19 +6119,19 @@
         <v>423163</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>416761</v>
+        <v>416328</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426903</v>
+        <v>426973</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9845394186615596</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9696435867735015</v>
+        <v>0.9686380665691838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9932406133847854</v>
+        <v>0.9934040350647336</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>3883</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>986</v>
+        <v>1010</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9153</v>
+        <v>9031</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01475586747824882</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003747942096253672</v>
+        <v>0.003838385583260562</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0347843671142226</v>
+        <v>0.03432131753262885</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -6244,19 +6244,19 @@
         <v>4415</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11787</v>
+        <v>10960</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01616704893508517</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004342267822525526</v>
+        <v>0.004337209879951879</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04315672129899688</v>
+        <v>0.04013030683219308</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -6265,19 +6265,19 @@
         <v>8298</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4058</v>
+        <v>3930</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14462</v>
+        <v>15345</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01547460584530611</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007567209265938238</v>
+        <v>0.00732902170254177</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02696851151598832</v>
+        <v>0.02861578113409992</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>259240</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253970</v>
+        <v>254092</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262137</v>
+        <v>262113</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9852441325217511</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9652156328857776</v>
+        <v>0.9656786824673715</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9962520579037463</v>
+        <v>0.9961616144167394</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>259</v>
@@ -6315,19 +6315,19 @@
         <v>268700</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>261328</v>
+        <v>262155</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271929</v>
+        <v>271930</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9838329510649149</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9568432787010033</v>
+        <v>0.959869693167807</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9956577321774744</v>
+        <v>0.9956627901200481</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>514</v>
@@ -6336,19 +6336,19 @@
         <v>527940</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>521776</v>
+        <v>520893</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>532180</v>
+        <v>532308</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9845253941546939</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9730314884840116</v>
+        <v>0.9713842188659001</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9924327907340618</v>
+        <v>0.9926709782974582</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>11415</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5752</v>
+        <v>5913</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21571</v>
+        <v>20557</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01738616335759673</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008761484251356193</v>
+        <v>0.009006408451808549</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03285399682591763</v>
+        <v>0.03130986009092577</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -6461,19 +6461,19 @@
         <v>10274</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5154</v>
+        <v>4886</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18487</v>
+        <v>17786</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01486165633152743</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00745520720778479</v>
+        <v>0.007068191202020441</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02674313329184335</v>
+        <v>0.02572903241918385</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -6482,19 +6482,19 @@
         <v>21689</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13350</v>
+        <v>12851</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35058</v>
+        <v>33212</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01609137983206908</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009904822698432658</v>
+        <v>0.009534216048061671</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02601061577717858</v>
+        <v>0.02464084135188858</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>645143</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>634987</v>
+        <v>636001</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>650806</v>
+        <v>650645</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9826138366424033</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9671460031740826</v>
+        <v>0.9686901399090745</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9912385157486439</v>
+        <v>0.9909935915481914</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>637</v>
@@ -6532,19 +6532,19 @@
         <v>681020</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>672807</v>
+        <v>673508</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>686140</v>
+        <v>686408</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9851383436684725</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9732568667081565</v>
+        <v>0.974270967580816</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9925447927922152</v>
+        <v>0.9929318087979796</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1207</v>
@@ -6553,19 +6553,19 @@
         <v>1326163</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1312794</v>
+        <v>1314640</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1334502</v>
+        <v>1335001</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9839086201679309</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9739893842228214</v>
+        <v>0.9753591586481114</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9900951773015674</v>
+        <v>0.9904657839519382</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>12113</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6788</v>
+        <v>6622</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19579</v>
+        <v>19474</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01555748909317157</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008717804197552553</v>
+        <v>0.008504880226420229</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02514693765871293</v>
+        <v>0.02501200586361928</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -6678,19 +6678,19 @@
         <v>10645</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4779</v>
+        <v>4930</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19504</v>
+        <v>19834</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01288442259751763</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005784730246102005</v>
+        <v>0.005967347120670874</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02360776667913488</v>
+        <v>0.02400708096588681</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -6699,19 +6699,19 @@
         <v>22757</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14707</v>
+        <v>14858</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>33641</v>
+        <v>34387</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01418132499626375</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009164874151580883</v>
+        <v>0.009258568832803909</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0209635728704902</v>
+        <v>0.02142799837870216</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>766470</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>759004</v>
+        <v>759109</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>771795</v>
+        <v>771961</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9844425109068284</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9748530623412871</v>
+        <v>0.9749879941363813</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9912821958024474</v>
+        <v>0.99149511977358</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>746</v>
@@ -6749,19 +6749,19 @@
         <v>815522</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>806663</v>
+        <v>806333</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>821388</v>
+        <v>821237</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9871155774024823</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9763922333208651</v>
+        <v>0.9759929190341129</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.994215269753898</v>
+        <v>0.9940326528793291</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1483</v>
@@ -6770,19 +6770,19 @@
         <v>1581993</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1571109</v>
+        <v>1570363</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1590043</v>
+        <v>1589892</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9858186750037362</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9790364271295098</v>
+        <v>0.9785720016212978</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9908351258484192</v>
+        <v>0.990741431167196</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>66480</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>52818</v>
+        <v>51889</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>85767</v>
+        <v>84606</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01958553796096673</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01556045674316667</v>
+        <v>0.01528687877289613</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02526755917797871</v>
+        <v>0.02492546581309908</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>41</v>
@@ -6895,19 +6895,19 @@
         <v>45519</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>32289</v>
+        <v>32134</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60085</v>
+        <v>61488</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01284208688678322</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009109566476428365</v>
+        <v>0.009065888822046553</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01695149075146733</v>
+        <v>0.01734723536674776</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>107</v>
@@ -6916,19 +6916,19 @@
         <v>111999</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>94572</v>
+        <v>90919</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>135960</v>
+        <v>134218</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01614083174964978</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01362926335875835</v>
+        <v>0.01310288322899035</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01959394714112176</v>
+        <v>0.01934290980531278</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3327870</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3308583</v>
+        <v>3309744</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3341532</v>
+        <v>3342461</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9804144620390333</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9747324408220213</v>
+        <v>0.9750745341869009</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9844395432568332</v>
+        <v>0.9847131212271039</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3297</v>
@@ -6966,19 +6966,19 @@
         <v>3499023</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3484457</v>
+        <v>3483054</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3512253</v>
+        <v>3512408</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9871579131132168</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9830485092485326</v>
+        <v>0.9826527646332524</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9908904335235716</v>
+        <v>0.9909341111779536</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6462</v>
@@ -6987,19 +6987,19 @@
         <v>6826893</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6802932</v>
+        <v>6804674</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6844320</v>
+        <v>6847973</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9838591682503502</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9804060528588781</v>
+        <v>0.9806570901946872</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9863707366412416</v>
+        <v>0.9868971167710096</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>4636</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1646</v>
+        <v>1623</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9916</v>
+        <v>9638</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01454137419287081</v>
+        <v>0.01454137419287082</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005161021281354463</v>
+        <v>0.005090016700679607</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0310992649772348</v>
+        <v>0.03022665826172657</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -7356,19 +7356,19 @@
         <v>3877</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1885</v>
+        <v>1833</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7180</v>
+        <v>7198</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01226648407010112</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005964373523122098</v>
+        <v>0.005797993971213682</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02271696491707937</v>
+        <v>0.02277300607084506</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -7377,19 +7377,19 @@
         <v>8513</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4796</v>
+        <v>4945</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14075</v>
+        <v>14017</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01340891785935321</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007553344737695284</v>
+        <v>0.007789209719130554</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02216795819461075</v>
+        <v>0.0220776465932346</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>314209</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308929</v>
+        <v>309207</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317199</v>
+        <v>317222</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9854586258071291</v>
+        <v>0.9854586258071292</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9689007350227643</v>
+        <v>0.9697733417382737</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9948389787186455</v>
+        <v>0.9949099832993202</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>530</v>
@@ -7427,19 +7427,19 @@
         <v>312184</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308881</v>
+        <v>308863</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>314176</v>
+        <v>314228</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9877335159298989</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9772830350829202</v>
+        <v>0.9772269939291549</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9940356264768779</v>
+        <v>0.9942020060287864</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>855</v>
@@ -7448,19 +7448,19 @@
         <v>626393</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>620831</v>
+        <v>620889</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>630110</v>
+        <v>629961</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9865910821406468</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9778320418053893</v>
+        <v>0.9779223534067655</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9924466552623046</v>
+        <v>0.9922107902808694</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>10511</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5478</v>
+        <v>5904</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18056</v>
+        <v>20154</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01984539384402948</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01034299533855319</v>
+        <v>0.01114767766443251</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03408973153662442</v>
+        <v>0.03805072746282863</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -7573,19 +7573,19 @@
         <v>10385</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5988</v>
+        <v>5494</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17167</v>
+        <v>16154</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01908655669138047</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01100480946170319</v>
+        <v>0.0100969993727532</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03155123382176813</v>
+        <v>0.02969029571529302</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -7594,19 +7594,19 @@
         <v>20896</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13363</v>
+        <v>13859</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31462</v>
+        <v>30425</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.01946087468202073</v>
+        <v>0.01946087468202074</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01244534668828534</v>
+        <v>0.01290708961749714</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02930109765556288</v>
+        <v>0.02833477638610064</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>519149</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>511604</v>
+        <v>509506</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>524182</v>
+        <v>523756</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9801546061559705</v>
+        <v>0.9801546061559706</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9659102684633751</v>
+        <v>0.9619492725371706</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9896570046614468</v>
+        <v>0.9888523223355674</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>698</v>
@@ -7644,19 +7644,19 @@
         <v>533709</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>526927</v>
+        <v>527940</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>538106</v>
+        <v>538600</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9809134433086195</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9684487661782314</v>
+        <v>0.9703097042847071</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9889951905382969</v>
+        <v>0.9899030006272472</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1068</v>
@@ -7665,19 +7665,19 @@
         <v>1052858</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1042292</v>
+        <v>1043329</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1060391</v>
+        <v>1059895</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9805391253179795</v>
+        <v>0.9805391253179793</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9706989023444368</v>
+        <v>0.9716652236138992</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9875546533117145</v>
+        <v>0.9870929103825026</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>10160</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5647</v>
+        <v>5824</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16502</v>
+        <v>15978</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0321512845531785</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01786977220142715</v>
+        <v>0.0184302560803902</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05222152304049483</v>
+        <v>0.05056329551949294</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -7790,19 +7790,19 @@
         <v>11446</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7767</v>
+        <v>7277</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16721</v>
+        <v>17267</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03211834837327312</v>
+        <v>0.03211834837327311</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02179526063269616</v>
+        <v>0.02041996467249988</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04691770393843797</v>
+        <v>0.04844993875349993</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -7811,19 +7811,19 @@
         <v>21606</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15554</v>
+        <v>15421</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29745</v>
+        <v>29742</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03213382726524057</v>
+        <v>0.03213382726524055</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02313263652115639</v>
+        <v>0.02293517492230628</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04423846493361376</v>
+        <v>0.04423422047891844</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>305833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>299491</v>
+        <v>300015</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310346</v>
+        <v>310169</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9678487154468214</v>
+        <v>0.9678487154468216</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9477784769595052</v>
+        <v>0.9494367044805071</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9821302277985727</v>
+        <v>0.9815697439196097</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>514</v>
@@ -7861,19 +7861,19 @@
         <v>344935</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>339660</v>
+        <v>339114</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>348614</v>
+        <v>349104</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9678816516267269</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9530822960615621</v>
+        <v>0.9515500612464999</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9782047393673039</v>
+        <v>0.9795800353275</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>858</v>
@@ -7882,19 +7882,19 @@
         <v>650769</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>642630</v>
+        <v>642633</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>656821</v>
+        <v>656954</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9678661727347596</v>
+        <v>0.9678661727347593</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9557615350663865</v>
+        <v>0.9557657795210818</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9768673634788436</v>
+        <v>0.9770648250776937</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>14345</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8086</v>
+        <v>7946</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24066</v>
+        <v>24378</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03844256457676719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02166898745712809</v>
+        <v>0.02129553528091637</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06449556392774171</v>
+        <v>0.06533124336830208</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -8007,19 +8007,19 @@
         <v>13979</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8010</v>
+        <v>8486</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25517</v>
+        <v>27426</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03312809881270622</v>
+        <v>0.03312809881270623</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01898378833903699</v>
+        <v>0.02011135111498274</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06047354551504489</v>
+        <v>0.06499685305629348</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -8028,19 +8028,19 @@
         <v>28323</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19141</v>
+        <v>19103</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43846</v>
+        <v>42967</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03562218884523301</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02407301109825462</v>
+        <v>0.0240255803435554</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05514498278309825</v>
+        <v>0.05403985227709285</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>358800</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>349079</v>
+        <v>348767</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>365059</v>
+        <v>365199</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9615574354232329</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9355044360722585</v>
+        <v>0.9346687566316977</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9783310125428725</v>
+        <v>0.9787044647190836</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>579</v>
@@ -8078,19 +8078,19 @@
         <v>407982</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>396444</v>
+        <v>394535</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>413951</v>
+        <v>413475</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9668719011872938</v>
+        <v>0.9668719011872939</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9395264544849551</v>
+        <v>0.9350031469437055</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9810162116609631</v>
+        <v>0.9798886488850171</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>855</v>
@@ -8099,19 +8099,19 @@
         <v>766784</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>751261</v>
+        <v>752140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>775966</v>
+        <v>776004</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9643778111547671</v>
+        <v>0.964377811154767</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9448550172169021</v>
+        <v>0.9459601477229073</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9759269889017457</v>
+        <v>0.9759744196564446</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>3710</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1376</v>
+        <v>1349</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7597</v>
+        <v>7647</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01803861373958116</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006692312184902884</v>
+        <v>0.006560379239167901</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03693824604812845</v>
+        <v>0.03718262328136181</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -8224,19 +8224,19 @@
         <v>3499</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1618</v>
+        <v>1657</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6394</v>
+        <v>6010</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01545471847899828</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007143941528426397</v>
+        <v>0.007317288147020173</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02823985409412754</v>
+        <v>0.02654303045283239</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -8245,19 +8245,19 @@
         <v>7209</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4237</v>
+        <v>4344</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11320</v>
+        <v>11533</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01668459964824516</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009806763745357164</v>
+        <v>0.01005378113001198</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02619944424571628</v>
+        <v>0.02669045386929922</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>201955</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198068</v>
+        <v>198018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204289</v>
+        <v>204316</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9819613862604188</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9630617539518715</v>
+        <v>0.9628173767186383</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9933076878150968</v>
+        <v>0.9934396207608321</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>481</v>
@@ -8295,19 +8295,19 @@
         <v>222924</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>220029</v>
+        <v>220413</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>224805</v>
+        <v>224766</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9845452815210018</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9717601459058727</v>
+        <v>0.9734569695471676</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9928560584715738</v>
+        <v>0.9926827118529797</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>754</v>
@@ -8316,19 +8316,19 @@
         <v>424878</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>420767</v>
+        <v>420554</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>427850</v>
+        <v>427743</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9833154003517549</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9738005557542836</v>
+        <v>0.9733095461307011</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9901932362546428</v>
+        <v>0.9899462188699881</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>12327</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7789</v>
+        <v>8109</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17860</v>
+        <v>19286</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0455346705559829</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02877462712067423</v>
+        <v>0.02995356106515148</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06597482244515546</v>
+        <v>0.07124457618379545</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -8441,19 +8441,19 @@
         <v>9468</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6059</v>
+        <v>6050</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13867</v>
+        <v>14351</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03598538424005117</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02303083257192975</v>
+        <v>0.02299420179498589</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05270658241735344</v>
+        <v>0.05454606569912127</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -8462,19 +8462,19 @@
         <v>21794</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16042</v>
+        <v>16048</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28699</v>
+        <v>29335</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04082807529662714</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03005237707519916</v>
+        <v>0.03006259701904391</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05376314427224615</v>
+        <v>0.05495499752421813</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>258380</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252847</v>
+        <v>251421</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262918</v>
+        <v>262598</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9544653294440171</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9340251775548445</v>
+        <v>0.9287554238162044</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9712253728793259</v>
+        <v>0.9700464389348484</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>437</v>
@@ -8512,19 +8512,19 @@
         <v>253631</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>249232</v>
+        <v>248748</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>257040</v>
+        <v>257049</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9640146157599488</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9472934175826465</v>
+        <v>0.9454539343008788</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9769691674280703</v>
+        <v>0.9770057982050143</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>784</v>
@@ -8533,19 +8533,19 @@
         <v>512012</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>505107</v>
+        <v>504471</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>517764</v>
+        <v>517758</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9591719247033731</v>
+        <v>0.959171924703373</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9462368557277541</v>
+        <v>0.9450450024757818</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.969947622924801</v>
+        <v>0.9699374029809562</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>18579</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11148</v>
+        <v>11716</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28087</v>
+        <v>29334</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02588611425825266</v>
+        <v>0.02588611425825265</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01553187255254185</v>
+        <v>0.01632398702253588</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03913421934288785</v>
+        <v>0.04087117485488118</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -8658,19 +8658,19 @@
         <v>24875</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18022</v>
+        <v>16415</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38112</v>
+        <v>37220</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03233588054032555</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0234271419268157</v>
+        <v>0.0213387810595765</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04954326878737565</v>
+        <v>0.04838304500053655</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -8679,19 +8679,19 @@
         <v>43454</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32234</v>
+        <v>31450</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58637</v>
+        <v>58688</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02922279117749847</v>
+        <v>0.02922279117749848</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02167721551280185</v>
+        <v>0.02115040966331749</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03943335559802508</v>
+        <v>0.03946753233185869</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>699142</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>689634</v>
+        <v>688387</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>706573</v>
+        <v>706005</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9741138857417475</v>
+        <v>0.9741138857417473</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.960865780657112</v>
+        <v>0.959128825145119</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9844681274474582</v>
+        <v>0.983676012977464</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>925</v>
@@ -8729,19 +8729,19 @@
         <v>744394</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>731157</v>
+        <v>732049</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>751247</v>
+        <v>752854</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9676641194596742</v>
+        <v>0.9676641194596746</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9504567312126241</v>
+        <v>0.9516169549994633</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9765728580731842</v>
+        <v>0.9786612189404236</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1503</v>
@@ -8750,19 +8750,19 @@
         <v>1443536</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1428353</v>
+        <v>1428302</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1454756</v>
+        <v>1455540</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9707772088225014</v>
+        <v>0.9707772088225015</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9605666444019746</v>
+        <v>0.9605324676681414</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9783227844871981</v>
+        <v>0.9788495903366825</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>15727</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9780</v>
+        <v>10014</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25476</v>
+        <v>24982</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01970669959484427</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0122545370714251</v>
+        <v>0.01254762044858767</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03192226480515903</v>
+        <v>0.03130239602627533</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -8875,19 +8875,19 @@
         <v>18291</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12397</v>
+        <v>11738</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26043</v>
+        <v>26823</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.02202102905290036</v>
+        <v>0.02202102905290037</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01492479419688334</v>
+        <v>0.01413146430561296</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03135469035958397</v>
+        <v>0.03229346333310656</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -8896,19 +8896,19 @@
         <v>34018</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24881</v>
+        <v>25563</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45236</v>
+        <v>45599</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02088698148246847</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01527661134703981</v>
+        <v>0.01569544173698831</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02777432908790604</v>
+        <v>0.02799777006404279</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>782345</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>772596</v>
+        <v>773090</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>788292</v>
+        <v>788058</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9802933004051556</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9680777351948401</v>
+        <v>0.9686976039737237</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9877454629285749</v>
+        <v>0.9874523795514123</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1034</v>
@@ -8946,19 +8946,19 @@
         <v>812318</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>804566</v>
+        <v>803786</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>818212</v>
+        <v>818871</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9779789709470995</v>
+        <v>0.9779789709470996</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9686453096404163</v>
+        <v>0.9677065366668944</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9850752058031166</v>
+        <v>0.985868535694387</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1777</v>
@@ -8967,19 +8967,19 @@
         <v>1594663</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1583445</v>
+        <v>1583082</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1603800</v>
+        <v>1603118</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9791130185175314</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9722256709120943</v>
+        <v>0.9720022299359572</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9847233886529602</v>
+        <v>0.9843045582630112</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>89995</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>73135</v>
+        <v>73164</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>107929</v>
+        <v>108421</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02549567385301782</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02071917958777696</v>
+        <v>0.02072756627278089</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03057654291755827</v>
+        <v>0.0307157390589978</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>154</v>
@@ -9092,19 +9092,19 @@
         <v>95820</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>79995</v>
+        <v>79936</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>113497</v>
+        <v>116705</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02570346357286687</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02145847028966737</v>
+        <v>0.02144272346154356</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03044542360832894</v>
+        <v>0.03130584920016689</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>271</v>
@@ -9113,19 +9113,19 @@
         <v>185815</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>162827</v>
+        <v>163641</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>210702</v>
+        <v>212925</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02560240437958038</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02243502385861763</v>
+        <v>0.02254725650629072</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02903154243972755</v>
+        <v>0.02933774895067725</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3439813</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3421879</v>
+        <v>3421387</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3456673</v>
+        <v>3456644</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.974504326146982</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9694234570824417</v>
+        <v>0.9692842609410015</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.979280820412223</v>
+        <v>0.9792724337272188</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5198</v>
@@ -9163,19 +9163,19 @@
         <v>3632077</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3614400</v>
+        <v>3611192</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3647902</v>
+        <v>3647961</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9742965364271331</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9695545763916705</v>
+        <v>0.9686941507998328</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9785415297103326</v>
+        <v>0.9785572765384564</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8454</v>
@@ -9184,19 +9184,19 @@
         <v>7071891</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7047004</v>
+        <v>7044781</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7094879</v>
+        <v>7094065</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9743975956204197</v>
+        <v>0.9743975956204195</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9709684575602727</v>
+        <v>0.9706622510493225</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9775649761413825</v>
+        <v>0.9774527434937093</v>
       </c>
     </row>
     <row r="30">
